--- a/results.xlsx
+++ b/results.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>NumCodeWords</t>
   </si>
@@ -78,6 +81,2134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Recognition Rate vs Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Code Words</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="113454864"/>
+        <c:axId val="113454304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113454864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Code Words</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113454304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113454304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Recognition Rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113454864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Recognition Rate vs Number of Code Words</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="228699120"/>
+        <c:axId val="228698560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="228699120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228698560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="228698560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228699120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674835" cy="6297521"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674835" cy="6297521"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,36 +2662,263 @@
       <c r="A11">
         <v>700</v>
       </c>
-      <c r="D11" t="e">
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>800</v>
       </c>
-      <c r="D12" t="e">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>900</v>
       </c>
-      <c r="D13" t="e">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000</v>
       </c>
-      <c r="D14" t="e">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <f>B3/C3</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D14" si="0">B4/C4</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>600</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>700</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>800</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>900</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
